--- a/results/12-2020/fim_stimulus_net_xmpc_changes.xlsx
+++ b/results/12-2020/fim_stimulus_net_xmpc_changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/results/12-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA38FA6F-16C0-1442-AF0E-0DE8FF8EA3E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1186C81-0CC5-7B44-B646-5AC1619A571A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -208,13 +208,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +559,10 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD18" sqref="AD18"/>
+      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3514,7 +3517,7 @@
       </c>
       <c r="B18" s="3">
         <f>stimulus!B18-'no-stimulus'!B18</f>
-        <v>477.16666666666663</v>
+        <v>693.83333333333337</v>
       </c>
       <c r="C18" s="3">
         <f>stimulus!C18-'no-stimulus'!C18</f>
@@ -3542,7 +3545,7 @@
       </c>
       <c r="I18" s="3">
         <f>stimulus!I18-'no-stimulus'!I18</f>
-        <v>477.16666666666663</v>
+        <v>693.83333333333348</v>
       </c>
       <c r="J18" s="3">
         <f>stimulus!J18-'no-stimulus'!J18</f>
@@ -3670,11 +3673,11 @@
       </c>
       <c r="AO18" s="3">
         <f>stimulus!AO18-'no-stimulus'!AO18</f>
-        <v>24.741038577871496</v>
+        <v>41.803538577871507</v>
       </c>
       <c r="AP18" s="3">
         <f>stimulus!AP18-'no-stimulus'!AP18</f>
-        <v>24.741237251363653</v>
+        <v>41.803737251363657</v>
       </c>
       <c r="AQ18" s="3">
         <f>stimulus!AQ18-'no-stimulus'!AQ18</f>
@@ -3687,7 +3690,7 @@
       </c>
       <c r="B19" s="3">
         <f>stimulus!B19-'no-stimulus'!B19</f>
-        <v>-3.363532097370225</v>
+        <v>-4.890808285487978</v>
       </c>
       <c r="C19" s="3">
         <f>stimulus!C19-'no-stimulus'!C19</f>
@@ -3715,7 +3718,7 @@
       </c>
       <c r="I19" s="3">
         <f>stimulus!I19-'no-stimulus'!I19</f>
-        <v>-3.3635320973701681</v>
+        <v>-4.8908082854880348</v>
       </c>
       <c r="J19" s="3">
         <f>stimulus!J19-'no-stimulus'!J19</f>
@@ -3843,11 +3846,11 @@
       </c>
       <c r="AO19" s="3">
         <f>stimulus!AO19-'no-stimulus'!AO19</f>
-        <v>17.546153349399514</v>
+        <v>30.222755349585245</v>
       </c>
       <c r="AP19" s="3">
         <f>stimulus!AP19-'no-stimulus'!AP19</f>
-        <v>17.54633555230965</v>
+        <v>30.22293755249537</v>
       </c>
       <c r="AQ19" s="3">
         <f>stimulus!AQ19-'no-stimulus'!AQ19</f>
@@ -3860,7 +3863,7 @@
       </c>
       <c r="B20" s="3">
         <f>stimulus!B20-'no-stimulus'!B20</f>
-        <v>-3.6792786381978146</v>
+        <v>-655.34992559232205</v>
       </c>
       <c r="C20" s="3">
         <f>stimulus!C20-'no-stimulus'!C20</f>
@@ -3888,7 +3891,7 @@
       </c>
       <c r="I20" s="3">
         <f>stimulus!I20-'no-stimulus'!I20</f>
-        <v>-3.6792786381978724</v>
+        <v>-655.34992559232194</v>
       </c>
       <c r="J20" s="3">
         <f>stimulus!J20-'no-stimulus'!J20</f>
@@ -4016,11 +4019,11 @@
       </c>
       <c r="AO20" s="3">
         <f>stimulus!AO20-'no-stimulus'!AO20</f>
-        <v>18.43284574261185</v>
+        <v>-21.60142245488613</v>
       </c>
       <c r="AP20" s="3">
         <f>stimulus!AP20-'no-stimulus'!AP20</f>
-        <v>18.433010875067026</v>
+        <v>-21.601257322430953</v>
       </c>
       <c r="AQ20" s="3">
         <f>stimulus!AQ20-'no-stimulus'!AQ20</f>
@@ -4033,7 +4036,7 @@
       </c>
       <c r="B21" s="3">
         <f>stimulus!B21-'no-stimulus'!B21</f>
-        <v>-458.29219299891884</v>
+        <v>-21.66638028596417</v>
       </c>
       <c r="C21" s="3">
         <f>stimulus!C21-'no-stimulus'!C21</f>
@@ -4061,7 +4064,7 @@
       </c>
       <c r="I21" s="3">
         <f>stimulus!I21-'no-stimulus'!I21</f>
-        <v>-458.29219299891872</v>
+        <v>-21.666380285964163</v>
       </c>
       <c r="J21" s="3">
         <f>stimulus!J21-'no-stimulus'!J21</f>
@@ -4189,11 +4192,11 @@
       </c>
       <c r="AO21" s="3">
         <f>stimulus!AO21-'no-stimulus'!AO21</f>
-        <v>-15.843820367951899</v>
+        <v>-10.075892202410868</v>
       </c>
       <c r="AP21" s="3">
         <f>stimulus!AP21-'no-stimulus'!AP21</f>
-        <v>-15.843660293571723</v>
+        <v>-10.075732128030694</v>
       </c>
       <c r="AQ21" s="3">
         <f>stimulus!AQ21-'no-stimulus'!AQ21</f>
@@ -4362,11 +4365,11 @@
       </c>
       <c r="AO22" s="3">
         <f>stimulus!AO22-'no-stimulus'!AO22</f>
-        <v>-10.998842111265077</v>
+        <v>-10.962248262889366</v>
       </c>
       <c r="AP22" s="3">
         <f>stimulus!AP22-'no-stimulus'!AP22</f>
-        <v>-10.99867976890272</v>
+        <v>-10.962085920527009</v>
       </c>
       <c r="AQ22" s="3">
         <f>stimulus!AQ22-'no-stimulus'!AQ22</f>
@@ -4535,11 +4538,11 @@
       </c>
       <c r="AO23" s="3">
         <f>stimulus!AO23-'no-stimulus'!AO23</f>
-        <v>-11.580685897230744</v>
+        <v>-10.122837574162835</v>
       </c>
       <c r="AP23" s="3">
         <f>stimulus!AP23-'no-stimulus'!AP23</f>
-        <v>-11.58049920119373</v>
+        <v>-10.12265087812583</v>
       </c>
       <c r="AQ23" s="3">
         <f>stimulus!AQ23-'no-stimulus'!AQ23</f>
@@ -4708,11 +4711,11 @@
       </c>
       <c r="AO24" s="3">
         <f>stimulus!AO24-'no-stimulus'!AO24</f>
-        <v>-8.7738623994980838</v>
+        <v>-5.9047823517224973</v>
       </c>
       <c r="AP24" s="3">
         <f>stimulus!AP24-'no-stimulus'!AP24</f>
-        <v>-8.7736854074767248</v>
+        <v>-5.9046053597011507</v>
       </c>
       <c r="AQ24" s="3">
         <f>stimulus!AQ24-'no-stimulus'!AQ24</f>
@@ -4881,11 +4884,11 @@
       </c>
       <c r="AO25" s="3">
         <f>stimulus!AO25-'no-stimulus'!AO25</f>
-        <v>-1.9181687586094072</v>
+        <v>-1.9144456067625921</v>
       </c>
       <c r="AP25" s="3">
         <f>stimulus!AP25-'no-stimulus'!AP25</f>
-        <v>-1.917979462106395</v>
+        <v>-1.9142563102595831</v>
       </c>
       <c r="AQ25" s="3">
         <f>stimulus!AQ25-'no-stimulus'!AQ25</f>
@@ -4901,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5087,130 +5090,130 @@
       <c r="A2" s="2">
         <v>42825</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>-2.074611975323243</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>-7.2696383911036264</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>11.423451032710769</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>-1.1251622553509151</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>-64.425970578651402</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
         <v>-0.89721309068443844</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>-2.069894307217147</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <v>-14.611560173634871</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <v>11.854762408403531</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="4">
         <v>-9.6549995656700958</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="4">
         <v>-64.115518889571149</v>
       </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4">
+        <v>0</v>
+      </c>
+      <c r="P2" s="4">
         <v>-4.7176681061021908E-3</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="4">
         <v>7.3419217825312444</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="4">
         <v>-0.43131137569264411</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="4">
         <v>8.5298373103191807</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="4">
         <v>-0.31045168908026</v>
       </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
+      <c r="U2" s="4">
+        <v>0</v>
+      </c>
+      <c r="V2" s="4">
         <v>-0.89721309068443844</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="4">
         <v>1.056565172358052</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="4">
         <v>1.331494896204197</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="4">
         <v>-0.2749297238461324</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="4">
         <v>-2.4019846746255999</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="4">
         <v>-1.0395214079496671</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="4">
         <v>-1.362463266675902</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="4">
         <v>-0.73291602728797312</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="4">
         <v>-0.73291602728797312</v>
       </c>
-      <c r="AE2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="3">
+      <c r="AE2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="4">
         <v>4.038787017226829</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="4">
         <v>3.8222092095359721</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="4">
         <v>0.21657780769086041</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="4">
         <v>0.46938232850194261</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="4">
         <v>1.7728488285710859</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="4">
         <v>-1.303466500068994</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="4">
         <v>-0.17967729033056851</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="4">
         <v>-0.17813814699503941</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="4">
         <v>-1.539143335528503E-3</v>
       </c>
     </row>
@@ -5218,130 +5221,130 @@
       <c r="A3" s="2">
         <v>42916</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>-1.570538178965649</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>-4.3093728324429321</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="4">
         <v>-1.6320726554308751</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>5.3597784038393002</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>4.715495221119113</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
         <v>-0.89275470925991129</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="4">
         <v>-1.667419170725204</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <v>-20.978608831961989</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <v>-1.91302109148819</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="4">
         <v>18.570595845124899</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="4">
         <v>6.4542195160321683</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
         <v>9.6880991759548341E-2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="4">
         <v>16.669235999519032</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="4">
         <v>0.28094843605734349</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="4">
         <v>-13.21081744128514</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="4">
         <v>-1.7387242949130479</v>
       </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
         <v>-0.89275470925991129</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="4">
         <v>-0.47494799216901812</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="4">
         <v>-3.663749367314205</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="4">
         <v>3.18880137514518</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="4">
         <v>-0.80461629107514021</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="4">
         <v>0.17094922798267481</v>
       </c>
-      <c r="AB3" s="3">
+      <c r="AB3" s="4">
         <v>-0.97556551905777655</v>
       </c>
-      <c r="AC3" s="3">
+      <c r="AC3" s="4">
         <v>-0.72466424618143288</v>
       </c>
-      <c r="AD3" s="3">
+      <c r="AD3" s="4">
         <v>-0.72466424618143288</v>
       </c>
-      <c r="AE3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="3">
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="4">
         <v>4.5064751873422306</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="4">
         <v>4.2922825445064117</v>
       </c>
-      <c r="AK3" s="3">
+      <c r="AK3" s="4">
         <v>0.21419264283582129</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AL3" s="4">
         <v>1.2317222360094999</v>
       </c>
-      <c r="AM3" s="3">
+      <c r="AM3" s="4">
         <v>0.56949814167281121</v>
       </c>
-      <c r="AN3" s="3">
+      <c r="AN3" s="4">
         <v>0.66222409433670237</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="4">
         <v>-0.2154264083308913</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="4">
         <v>-0.21890789060678231</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="4">
         <v>3.4814822758911439E-3</v>
       </c>
     </row>
@@ -5349,130 +5352,130 @@
       <c r="A4" s="2">
         <v>43008</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>3.2210176233492049</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>9.3681361572612332</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="4">
         <v>0.72464261563868604</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>34.869064961321783</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>-2.6405817813075032</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
         <v>-0.14854411984284971</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="4">
         <v>3.2259555859950879</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <v>23.41958542976408</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <v>-2.5857136271695249</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="4">
         <v>13.64846223750374</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="4">
         <v>-3.4052180746954259</v>
       </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
         <v>-4.9379626458844186E-3</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="4">
         <v>-14.051449272502939</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="4">
         <v>3.310356242808155</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="4">
         <v>21.220602723817819</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="4">
         <v>0.76463629338785921</v>
       </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
         <v>-0.14854411984284971</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="4">
         <v>0.67540759533982853</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="4">
         <v>-0.96911218152953893</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="4">
         <v>1.644519776869297</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="4">
         <v>0.89998835543178346</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="4">
         <v>0.92376827497872682</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="4">
         <v>-2.3779919546917831E-2</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="4">
         <v>-0.55044718020160832</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="4">
         <v>-0.55044718020160832</v>
       </c>
-      <c r="AE4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="3">
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
         <v>3.5640222988773989</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="4">
         <v>3.324878335570026</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="4">
         <v>0.23914396330737731</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="4">
         <v>-3.828792710548806</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="4">
         <v>-1.885816052082673</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN4" s="4">
         <v>-1.942976658466131</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="4">
         <v>-1.3285267010753599E-2</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="4">
         <v>-1.602392783984518E-2</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="4">
         <v>2.7386608290918251E-3</v>
       </c>
     </row>
@@ -5480,130 +5483,130 @@
       <c r="A5" s="2">
         <v>43100</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>-2.5670913413957019</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>-7.2416505559556299</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="4">
         <v>-9.946432094167676</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>64.317625060733008</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>-33.025757479074571</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>-0.82654067276720156</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="4">
         <v>-2.5606251894597141</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <v>4.2294403929208784</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <v>-6.1721494527632794</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="4">
         <v>14.5745796969768</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>-33.74272611284664</v>
       </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
         <v>-6.4661519359842101E-3</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="4">
         <v>-11.47109094887659</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="4">
         <v>-3.7742826414044539</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="4">
         <v>49.743045363756437</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="4">
         <v>0.71696863377209041</v>
       </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
         <v>-0.82654067276720156</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="4">
         <v>-2.1268182650042151</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="4">
         <v>-1.7867572161551779</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="4">
         <v>-0.340061048849082</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="4">
         <v>-0.41398682712034512</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="4">
         <v>0.26637260332107082</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="4">
         <v>-0.68035943044140945</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="4">
         <v>-0.54214432933929935</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="4">
         <v>-0.54214432933929935</v>
       </c>
-      <c r="AE5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="3">
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
         <v>4.7151599215041404</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="4">
         <v>4.4824304419433183</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="4">
         <v>0.23272947956082629</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="4">
         <v>-9.7795370105671271</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="4">
         <v>-1.638981122517617</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN5" s="4">
         <v>-8.1405558880494997</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="4">
         <v>-0.10298380877050629</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="4">
         <v>-0.1052938553966643</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="4">
         <v>2.3100466261583661E-3</v>
       </c>
     </row>
@@ -5611,130 +5614,130 @@
       <c r="A6" s="2">
         <v>43190</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>-2.4611969835707299</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>2.1768324309293798</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="4">
         <v>23.814412577084791</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>-47.30267637306406</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>-37.873463978631293</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>-0.92839450184013472</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="4">
         <v>-2.4545850137350271</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <v>4.5106330174326104</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <v>24.0965958152558</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="4">
         <v>-50.888010487989959</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="4">
         <v>-37.262958763801009</v>
       </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
         <v>-6.611969835707332E-3</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="4">
         <v>-2.333800586503457</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="4">
         <v>-0.28218323817097257</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="4">
         <v>3.5853341149261269</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="4">
         <v>-0.61050521483031162</v>
       </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
         <v>-0.92839450184013472</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="4">
         <v>-1.362330046788429E-3</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="4">
         <v>2.5157362518350062</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="4">
         <v>-2.5170985818818901</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="4">
         <v>2.176194250003411</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="4">
         <v>3.0207851198628299</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="4">
         <v>-0.84459086985943177</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="4">
         <v>-0.73992959969969774</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="4">
         <v>-0.73992959969969774</v>
       </c>
-      <c r="AE6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="3">
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
         <v>6.4335260511386956</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="4">
         <v>6.1838906513135301</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK6" s="4">
         <v>0.24963539982517111</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="4">
         <v>-4.9475578141550072</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="4">
         <v>3.0749315479183501</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="4">
         <v>-8.0224893620733848</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="4">
         <v>-0.1765121892637759</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="4">
         <v>-0.17834891833842639</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="4">
         <v>1.8367290746503901E-3</v>
       </c>
     </row>
@@ -5742,130 +5745,130 @@
       <c r="A7" s="2">
         <v>43281</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>-0.98386463406981051</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>9.1794173787075124</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="4">
         <v>-11.488101628151529</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>-45.376453453094648</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>18.951179429958071</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>-1.5929355208735141</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="4">
         <v>-0.97784541103816025</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <v>-2.02636186794166</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <v>-11.12675401916044</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="4">
         <v>-6.0635660947723409</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="4">
         <v>14.106954356546851</v>
       </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <v>-6.0192230316475914E-3</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="4">
         <v>11.205779246649231</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="4">
         <v>-0.36134760899116708</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="4">
         <v>-39.312887358322307</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="4">
         <v>4.8442250734112093</v>
       </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
+      <c r="U7" s="4">
+        <v>0</v>
+      </c>
+      <c r="V7" s="4">
         <v>-1.5929355208735141</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="4">
         <v>3.0336154674620621</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="4">
         <v>6.7799918187395809</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="4">
         <v>-3.7463763512775961</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="4">
         <v>-0.26400780864623669</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="4">
         <v>0.9476952111365734</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="4">
         <v>-1.211703019782848</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="4">
         <v>-0.96252513948719953</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="4">
         <v>-0.96252513948719953</v>
       </c>
-      <c r="AE7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="3">
+      <c r="AE7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="4">
         <v>5.8440390047097779</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="4">
         <v>5.7769761367462404</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="4">
         <v>6.7062867963542772E-2</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="4">
         <v>3.613240393407541</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="4">
         <v>3.768869260152214</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="4">
         <v>-0.15562886674471399</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="4">
         <v>-0.2050037333722978</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="4">
         <v>-0.20656227556168441</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="4">
         <v>1.558542189386745E-3</v>
       </c>
     </row>
@@ -5873,130 +5876,130 @@
       <c r="A8" s="2">
         <v>43373</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>-0.38967246424003582</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>3.7163214525387498</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="4">
         <v>-8.2838481648502693</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>26.965818635449981</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>8.5507259644338092</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
         <v>-0.73636439017814581</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="4">
         <v>-0.38458935907491559</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <v>8.6183436291846647</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <v>-8.625747371396983</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="4">
         <v>15.92627658568108</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="4">
         <v>7.7658139544994071</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
         <v>-5.0831051651214487E-3</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="4">
         <v>-4.9020221766459429</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="4">
         <v>0.34189920654662842</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="4">
         <v>11.039542049767761</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="4">
         <v>0.78491200993436649</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
+      <c r="U8" s="4">
+        <v>0</v>
+      </c>
+      <c r="V8" s="4">
         <v>-0.73636439017814581</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="4">
         <v>1.7619571588995031</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="4">
         <v>3.4497124136092112</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="4">
         <v>-1.6877552547097721</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="4">
         <v>-2.2669251797746099</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="4">
         <v>-0.41131238131460462</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="4">
         <v>-1.8556127984600499</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="4">
         <v>-0.9385320850055574</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="4">
         <v>-0.9385320850055574</v>
       </c>
-      <c r="AE8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="3">
+      <c r="AE8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="4">
         <v>4.502448709534729</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="4">
         <v>4.5313395806393428</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK8" s="4">
         <v>-2.8890871104609531E-2</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AL8" s="4">
         <v>-1.3063398248895459</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="4">
         <v>-0.91155861425373585</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="4">
         <v>-0.39478121063566057</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="4">
         <v>-0.24486845006844221</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="4">
         <v>-0.24638118354815181</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="4">
         <v>1.512733479709608E-3</v>
       </c>
     </row>
@@ -6004,130 +6007,130 @@
       <c r="A9" s="2">
         <v>43465</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>21.12614918232314</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="4">
         <v>-2.8255758479899669</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>-6.6733564111520991</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>-12.193687406424941</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>19.638774077303651</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>-0.62424028332203818</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="4">
         <v>21.131059553490779</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <v>1.240361873050688</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <v>-6.3423342522066832</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <v>8.7737470575616499</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <v>18.746997493154002</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
         <v>-4.9103711676359296E-3</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="4">
         <v>-4.0659377210406547</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="4">
         <v>-0.33102215894541592</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="4">
         <v>-20.967434463986589</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="4">
         <v>0.89177658414968164</v>
       </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="U9" s="4">
+        <v>0</v>
+      </c>
+      <c r="V9" s="4">
         <v>-0.62424028332203818</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="4">
         <v>2.755573968191777</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="4">
         <v>2.777169746638418</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="4">
         <v>-2.15957784466859E-2</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="4">
         <v>-1.2913400559547861</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="4">
         <v>-0.44960396118937068</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="4">
         <v>-0.84173609476544742</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="4">
         <v>-0.69938898986423881</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="4">
         <v>-0.69938898986423881</v>
       </c>
-      <c r="AE9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="3">
+      <c r="AE9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="4">
         <v>2.8075334533214531</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="4">
         <v>2.9292292890142888</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK9" s="4">
         <v>-0.121695835692834</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL9" s="4">
         <v>-2.4171863281460721</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="4">
         <v>-1.77522653505951</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="4">
         <v>-0.64195979308646611</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="4">
         <v>0.7993157459681185</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="4">
         <v>0.79790094781423115</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="4">
         <v>1.414798153887419E-3</v>
       </c>
     </row>
@@ -6135,130 +6138,130 @@
       <c r="A10" s="2">
         <v>43555</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>-8.6784845605589993</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="4">
         <v>15.61631932972614</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>53.995310464971908</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>76.897935219320971</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>-17.694768502625038</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.83749580962147263</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="4">
         <v>-8.6748733563283622</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <v>22.126113359845021</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <v>54.531906111735218</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="4">
         <v>62.372654925075487</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="4">
         <v>-22.312582721549632</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
         <v>-3.6112042306339909E-3</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="4">
         <v>-6.5097940301189112</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="4">
         <v>-0.53659564676345894</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="4">
         <v>14.52528029424616</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="4">
         <v>4.6178142189245719</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
-      <c r="V10" s="3">
+      <c r="U10" s="4">
+        <v>0</v>
+      </c>
+      <c r="V10" s="4">
         <v>0.83749580962147263</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="4">
         <v>5.7794585204210476</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="4">
         <v>6.7406528236812111</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="4">
         <v>-0.96119430326016297</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="4">
         <v>5.9773173746163959</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="4">
         <v>6.3983408555185006</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="4">
         <v>-0.42102348090217567</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="4">
         <v>-0.2214335840676577</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="4">
         <v>-0.2214335840676577</v>
       </c>
-      <c r="AE10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="3">
+      <c r="AE10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="4">
         <v>3.519207360716075</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="4">
         <v>3.8171599742802749</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK10" s="4">
         <v>-0.29795261356419639</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL10" s="4">
         <v>-10.094499171658651</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM10" s="4">
         <v>-8.8836685048679112</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="4">
         <v>-1.2108306667907891</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="4">
         <v>0.18279169964249639</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP10" s="4">
         <v>0.18138785471683549</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="4">
         <v>1.4038449256611469E-3</v>
       </c>
     </row>
@@ -6266,130 +6269,130 @@
       <c r="A11" s="2">
         <v>43646</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>-10.97582819782048</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="4">
         <v>13.027601952579969</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="4">
         <v>-11.774515856377549</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>9.7597226783263977</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>7.5282426333138233</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>-0.80467306506274383</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="4">
         <v>-10.969299489283429</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <v>14.691028554788771</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <v>-11.158767357690291</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <v>-25.767209127571729</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <v>8.0736035246280267</v>
       </c>
-      <c r="N11" s="3">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>0</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
         <v>-6.5287085370587814E-3</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>-1.663426602208631</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="4">
         <v>-0.61574849868716797</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="4">
         <v>35.526931805897902</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="4">
         <v>-0.5453608913142034</v>
       </c>
-      <c r="U11" s="3">
-        <v>0</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="U11" s="4">
+        <v>0</v>
+      </c>
+      <c r="V11" s="4">
         <v>-0.80467306506274383</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="4">
         <v>6.6453000495423513</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="4">
         <v>10.502065668795559</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="4">
         <v>-3.856765619253181</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="4">
         <v>5.908732650232067</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="4">
         <v>6.3911378543492843</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="4">
         <v>-0.48240520411724941</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="4">
         <v>-0.22557510710113121</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="4">
         <v>-0.22557510710113121</v>
       </c>
-      <c r="AE11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="3">
+      <c r="AE11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
         <v>3.4758412386629511</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="4">
         <v>3.810291415421835</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK11" s="4">
         <v>-0.33445017675887961</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL11" s="4">
         <v>-11.675700433212951</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="4">
         <v>-4.1509428353981086</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="4">
         <v>-7.5247575978148422</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="4">
         <v>-0.37963897104366973</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="4">
         <v>-0.38073185004075227</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="4">
         <v>1.092878997082163E-3</v>
       </c>
     </row>
@@ -6397,130 +6400,130 @@
       <c r="A12" s="2">
         <v>43738</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>20.407330848054059</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>6.2540807492796384</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>-7.0948101101218981</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>-41.609219841804588</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>-23.861747865875088</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
         <v>-0.12174143500021729</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>20.41216884299952</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>-0.31892612287583688</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>-6.8643319578663977</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <v>-4.9606217928258047</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>-24.40779744461997</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
         <v>-4.8379949454593341E-3</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="4">
         <v>6.5730068721555028</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="4">
         <v>-0.2304781522556141</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="4">
         <v>-36.648598048978563</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="4">
         <v>0.54604957874489912</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
+      <c r="U12" s="4">
+        <v>0</v>
+      </c>
+      <c r="V12" s="4">
         <v>-0.12174143500021729</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="4">
         <v>7.2162958913090511</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="4">
         <v>8.4911799745819447</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="4">
         <v>-1.2748840832728561</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="4">
         <v>6.0243952534968743</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="4">
         <v>6.7874563223936661</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="4">
         <v>-0.76306106889683112</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="4">
         <v>-0.37744606615020831</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="4">
         <v>-0.37744606615020831</v>
       </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
+      <c r="AE12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="4">
         <v>4.606214949330254</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AJ12" s="4">
         <v>4.9563773498578438</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AK12" s="4">
         <v>-0.35016240052758701</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AL12" s="4">
         <v>2.3425958642165769E-2</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM12" s="4">
         <v>1.005598809495742</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN12" s="4">
         <v>-0.98217285085357608</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO12" s="4">
         <v>0.66360954155499974</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP12" s="4">
         <v>0.66253390440217608</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="4">
         <v>1.07563715282353E-3</v>
       </c>
     </row>
@@ -6528,130 +6531,130 @@
       <c r="A13" s="2">
         <v>43830</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>-1.5879656657619421</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>-6.7481111364511426</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>-5.3851606931227707</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>2.9206035053020969</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>27.023001442831859</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
         <v>6.8440824694757652E-2</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>-1.5829317706466099</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>-9.5559830656393387</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <v>-4.701356358500334</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>18.09244122248538</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="4">
         <v>26.40861124124871</v>
       </c>
-      <c r="N13" s="3">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="P13" s="3">
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
         <v>-5.033895115331255E-3</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="4">
         <v>2.807871929188138</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="4">
         <v>-0.68380433462218093</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="4">
         <v>-15.171837717183051</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="4">
         <v>0.6143902015831344</v>
       </c>
-      <c r="U13" s="3">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3">
+      <c r="U13" s="4">
+        <v>0</v>
+      </c>
+      <c r="V13" s="4">
         <v>6.8440824694757652E-2</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="4">
         <v>6.3337254514052859</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="4">
         <v>6.0620023633766893</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="4">
         <v>0.27172308802862227</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="4">
         <v>6.6166225006602382</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="4">
         <v>7.1566763484775953</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="4">
         <v>-0.54005384781733745</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="4">
         <v>-7.5062855543442469E-2</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="4">
         <v>-7.5062855543442469E-2</v>
       </c>
-      <c r="AE13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="3">
+      <c r="AE13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="4">
         <v>3.103829047240152</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="4">
         <v>3.456353397365822</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK13" s="4">
         <v>-0.3525243501256663</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL13" s="4">
         <v>4.1175944023494777</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM13" s="4">
         <v>-1.8370519030382</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN13" s="4">
         <v>5.9546463053876506</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO13" s="4">
         <v>0.5388731547705965</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP13" s="4">
         <v>0.53782056290533442</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="4">
         <v>1.052591865261784E-3</v>
       </c>
     </row>
@@ -6659,130 +6662,130 @@
       <c r="A14" s="2">
         <v>43921</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>-6.6268034180989304</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>0.54601128888270978</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>41.043187595467998</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>30.55229559644977</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>-59.824041773395152</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
         <v>15.284367258138589</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>-6.6221661548330957</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>9.4735263287570888</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>40.737581726205462</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>14.714497610314989</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>-50.975298953604486</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="N14" s="4">
+        <v>0</v>
+      </c>
+      <c r="O14" s="4">
+        <v>0</v>
+      </c>
+      <c r="P14" s="4">
         <v>-4.6372632658366886E-3</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="4">
         <v>-8.9275150398743506</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="4">
         <v>0.30560586926250721</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="4">
         <v>15.83779798613455</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="4">
         <v>-8.8487428197906723</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
+      <c r="U14" s="4">
+        <v>0</v>
+      </c>
+      <c r="V14" s="4">
         <v>15.284367258138589</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="4">
         <v>2.9429061422155138</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="4">
         <v>3.215170281381905</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="4">
         <v>-0.27226413916635162</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="4">
         <v>8.5398114503356126</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="4">
         <v>4.0529533617333984</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="4">
         <v>4.4868580886022604</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="4">
         <v>4.7623537397703126</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="4">
         <v>4.7623537397703126</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3">
+      <c r="AE14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="4">
         <v>2.950431420398278</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ14" s="4">
         <v>3.0183460661669339</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK14" s="4">
         <v>-6.7914645768652568E-2</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL14" s="4">
         <v>-4.8833948421166129</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM14" s="4">
         <v>-6.9537095531249458</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AN14" s="4">
         <v>2.0703147110083591</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO14" s="4">
         <v>0.2954267104970183</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP14" s="4">
         <v>0.2943618858483209</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="4">
         <v>1.064824648697237E-3</v>
       </c>
     </row>
@@ -6790,130 +6793,130 @@
       <c r="A15" s="2">
         <v>44012</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>1011.35742176976</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="4">
         <v>63.289936413221987</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="4">
         <v>253.52631354708001</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>-356.6703843391997</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>-17.637883163706899</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>1078.0999999999999</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="4">
         <v>1041.175394205161</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="4">
         <v>1011.357761942039</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <v>107.9147075988478</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <v>253.20738794021349</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="4">
         <v>-273.01448958554869</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="4">
         <v>-9.1023351605637117</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="4">
         <v>1078.0999999999999</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="4">
         <v>834.93333333333328</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <v>-3.4017227888216711E-4</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="4">
         <v>-44.624771185626031</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="4">
         <v>0.91892560686656566</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="4">
         <v>-83.6558947536505</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="4">
         <v>-8.535548003143191</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
+      <c r="U15" s="4">
+        <v>0</v>
+      </c>
+      <c r="V15" s="4">
         <v>205.6420608718276</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="4">
         <v>14.25193139585997</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="4">
         <v>24.190498066295191</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="4">
         <v>-9.9385666704352662</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="4">
         <v>660.38614915586004</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="4">
         <v>590.67383830376161</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="4">
         <v>69.658310852098509</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="4">
         <v>332.78150482951679</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="4">
         <v>69.588504829516978</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE15" s="4">
         <v>263.00400000000002</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF15" s="4">
         <v>264.13449999999989</v>
       </c>
-      <c r="AG15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="3">
+      <c r="AG15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="4">
         <v>264.13449999999989</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI15" s="4">
         <v>3.6955440332258109</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AJ15" s="4">
         <v>3.5368978887201301</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AK15" s="4">
         <v>0.15864614450568551</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AL15" s="4">
         <v>35.369700281719787</v>
       </c>
-      <c r="AM15" s="3">
+      <c r="AM15" s="4">
         <v>26.52976170480369</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AN15" s="4">
         <v>8.8399385769160972</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AO15" s="4">
         <v>50.439921411923983</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AP15" s="4">
         <v>50.442061413149283</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="4">
         <v>-2.140001225281421E-3</v>
       </c>
     </row>
@@ -6921,130 +6924,130 @@
       <c r="A16" s="2">
         <v>44104</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <v>113.5856947200293</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="4">
         <v>15.068139574350431</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="4">
         <v>-96.199760314380683</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>192.98192503884371</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>68.713429634892435</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>-1075.8105959708571</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="4">
         <v>-216.63684722195671</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="4">
         <v>113.59310252782321</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <v>-24.471854983845329</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="4">
         <v>53.324705748341557</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="4">
         <v>123.4559522245695</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="4">
         <v>33.38260160560057</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="4">
         <v>-1075.8105959708571</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="4">
         <v>-150.04170942330731</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <v>-7.4078077938172227E-3</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="4">
         <v>39.539994558195929</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="4">
         <v>-149.97787387051631</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="4">
         <v>69.5259728142737</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="4">
         <v>35.330828029291837</v>
       </c>
-      <c r="U16" s="3">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3">
+      <c r="U16" s="4">
+        <v>0</v>
+      </c>
+      <c r="V16" s="4">
         <v>-66.141729990855737</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="4">
         <v>16.2350946315009</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="4">
         <v>18.756089072577051</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="4">
         <v>-2.5209944410761711</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="4">
         <v>154.1181408921864</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="4">
         <v>142.44563730645669</v>
       </c>
-      <c r="AB16" s="3">
+      <c r="AB16" s="4">
         <v>11.659310288431181</v>
       </c>
-      <c r="AC16" s="3">
+      <c r="AC16" s="4">
         <v>261.06970637466128</v>
       </c>
-      <c r="AD16" s="3">
+      <c r="AD16" s="4">
         <v>45.282668302458291</v>
       </c>
-      <c r="AE16" s="3">
+      <c r="AE16" s="4">
         <v>215.74086153165811</v>
       </c>
-      <c r="AF16" s="3">
+      <c r="AF16" s="4">
         <v>-150.37309601286</v>
       </c>
-      <c r="AG16" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="3">
+      <c r="AG16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="4">
         <v>-150.37309601286</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI16" s="4">
         <v>1.317076986019146</v>
       </c>
-      <c r="AJ16" s="3">
+      <c r="AJ16" s="4">
         <v>2.3106372327102629</v>
       </c>
-      <c r="AK16" s="3">
+      <c r="AK16" s="4">
         <v>-0.99356024669111409</v>
       </c>
-      <c r="AL16" s="3">
+      <c r="AL16" s="4">
         <v>15.662956130972541</v>
       </c>
-      <c r="AM16" s="3">
+      <c r="AM16" s="4">
         <v>13.55349388961511</v>
       </c>
-      <c r="AN16" s="3">
+      <c r="AN16" s="4">
         <v>2.109462241357392</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO16" s="4">
         <v>49.100484857906608</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AP16" s="4">
         <v>49.102778510633932</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="4">
         <v>-2.2936527272878851E-3</v>
       </c>
     </row>
@@ -7052,130 +7055,130 @@
       <c r="A17" s="2">
         <v>44196</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <v>-835.96233722230841</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="4">
         <v>18.40694313425433</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="4">
         <v>-53.499328477448671</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>41.79607852089066</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>10.570982302852091</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>-15.677084832336501</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="4">
         <v>-540.90906572558379</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="4">
         <v>-835.96133736758156</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <v>32.779463720436297</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="4">
         <v>-239.00429805180721</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="4">
         <v>13.15196637382815</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="4">
         <v>9.1926946205700233</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="4">
         <v>-15.677084832336501</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="4">
         <v>-440.83521637438048</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="4">
         <v>-9.9985472700236944E-4</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="4">
         <v>-14.372520586181651</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="4">
         <v>185.350208608706</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="4">
         <v>28.644112147062739</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="4">
         <v>1.378287682282036</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
+      <c r="U17" s="4">
+        <v>0</v>
+      </c>
+      <c r="V17" s="4">
         <v>-99.919088385550594</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="4">
         <v>21.894981842409631</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="4">
         <v>28.281564599444071</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="4">
         <v>-6.3865827570343736</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="4">
         <v>-167.37953815619281</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="4">
         <v>-143.0499200804696</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AB17" s="4">
         <v>-24.193882886113041</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AC17" s="4">
         <v>-143.5479825742421</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AD17" s="4">
         <v>-32.428177784334778</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AE17" s="4">
         <v>-110.9822316262717</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AF17" s="4">
         <v>-56.427398360862433</v>
       </c>
-      <c r="AG17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="3">
+      <c r="AG17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="4">
         <v>-56.427398360862433</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17" s="4">
         <v>-0.13614767337840869</v>
       </c>
-      <c r="AJ17" s="3">
+      <c r="AJ17" s="4">
         <v>0.87945654159637465</v>
       </c>
-      <c r="AK17" s="3">
+      <c r="AK17" s="4">
         <v>-1.015604214974779</v>
       </c>
-      <c r="AL17" s="3">
+      <c r="AL17" s="4">
         <v>-11.484417596271809</v>
       </c>
-      <c r="AM17" s="3">
+      <c r="AM17" s="4">
         <v>-3.8791866269234929</v>
       </c>
-      <c r="AN17" s="3">
+      <c r="AN17" s="4">
         <v>-7.605230969348364</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO17" s="4">
         <v>4.7356802546107772</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AP17" s="4">
         <v>4.7377215909874888</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ17" s="4">
         <v>-2.041336376714476E-3</v>
       </c>
     </row>
@@ -7183,130 +7186,130 @@
       <c r="A18" s="2">
         <v>44286</v>
       </c>
-      <c r="B18" s="3">
-        <v>192.3542292677524</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="4">
+        <v>409.02089593441917</v>
+      </c>
+      <c r="C18" s="4">
         <v>24.941351912648319</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="4">
         <v>45.28978696202762</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>32.012585136294547</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>10.022171609710091</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>664</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="4">
         <v>377.28266940832839</v>
       </c>
-      <c r="I18" s="3">
-        <v>192.35553693338801</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="I18" s="4">
+        <v>409.02220360005481</v>
+      </c>
+      <c r="J18" s="4">
         <v>24.127377344911569</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <v>45.844170531964437</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="4">
         <v>10.96526462273096</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="4">
         <v>9.0076797590058675</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="4">
         <v>664</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="4">
         <v>404.76645061910398</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="4">
         <v>-1.307665635613908E-3</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="4">
         <v>0.81397456773686372</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="4">
         <v>-0.55438356993704474</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="4">
         <v>21.047320513563822</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="4">
         <v>1.0144918507042751</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
+      <c r="U18" s="4">
+        <v>0</v>
+      </c>
+      <c r="V18" s="4">
         <v>-27.4837812107756</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="4">
         <v>27.383933482756891</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="4">
         <v>31.57868107807883</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Y18" s="4">
         <v>-4.19474759532185</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="Z18" s="4">
         <v>218.07047110690471</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AA18" s="4">
         <v>236.94939004518719</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AB18" s="4">
         <v>-18.84520050542595</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AC18" s="4">
         <v>23.35703075228043</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AD18" s="4">
         <v>-26.885997779827779</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AE18" s="4">
         <v>50.278584938990242</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AF18" s="4">
         <v>161.16211271823661</v>
       </c>
-      <c r="AG18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="3">
+      <c r="AG18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="4">
         <v>161.16211271823661</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18" s="4">
         <v>-1.732668859656455</v>
       </c>
-      <c r="AJ18" s="3">
+      <c r="AJ18" s="4">
         <v>-0.6628980758305214</v>
       </c>
-      <c r="AK18" s="3">
+      <c r="AK18" s="4">
         <v>-1.069770783825932</v>
       </c>
-      <c r="AL18" s="3">
+      <c r="AL18" s="4">
         <v>0.8668638028627168</v>
       </c>
-      <c r="AM18" s="3">
+      <c r="AM18" s="4">
         <v>5.9546980473274918</v>
       </c>
-      <c r="AN18" s="3">
+      <c r="AN18" s="4">
         <v>-5.0878342444648306</v>
       </c>
-      <c r="AO18" s="3">
-        <v>18.607629241532059</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>18.609668085841509</v>
-      </c>
-      <c r="AQ18" s="3">
+      <c r="AO18" s="4">
+        <v>35.670129241532067</v>
+      </c>
+      <c r="AP18" s="4">
+        <v>35.672168085841513</v>
+      </c>
+      <c r="AQ18" s="4">
         <v>-2.0388443094495811E-3</v>
       </c>
     </row>
@@ -7314,130 +7317,130 @@
       <c r="A19" s="2">
         <v>44377</v>
       </c>
-      <c r="B19" s="3">
-        <v>-4.0722674843848381</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="4">
+        <v>-5.5995436725025911</v>
+      </c>
+      <c r="C19" s="4">
         <v>16.774800214030169</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="4">
         <v>-23.279394885093101</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>23.033608254241699</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>9.4405475504833589</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>-668.68051410266253</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="4">
         <v>-577.10345212398749</v>
       </c>
-      <c r="I19" s="3">
-        <v>-4.0701928035754236</v>
-      </c>
-      <c r="J19" s="3">
+      <c r="I19" s="4">
+        <v>-5.5974689916932903</v>
+      </c>
+      <c r="J19" s="4">
         <v>18.08640474963704</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <v>-22.453383087776729</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <v>5.8522419014366278</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="4">
         <v>8.6123967111568049</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="4">
         <v>-668.68051410266253</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="4">
         <v>-560.68051410266253</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="4">
         <v>-2.0746808093465852E-3</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="4">
         <v>-1.311604535606989</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="4">
         <v>-0.82601179731656771</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="4">
         <v>17.181366352804389</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="4">
         <v>0.82815083932656819</v>
       </c>
-      <c r="U19" s="3">
-        <v>0</v>
-      </c>
-      <c r="V19" s="3">
+      <c r="U19" s="4">
+        <v>0</v>
+      </c>
+      <c r="V19" s="4">
         <v>-16.422938021324921</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="4">
         <v>16.91802783793873</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="4">
         <v>11.3673129370064</v>
       </c>
-      <c r="Y19" s="3">
+      <c r="Y19" s="4">
         <v>5.5507149009324346</v>
       </c>
-      <c r="Z19" s="3">
+      <c r="Z19" s="4">
         <v>-207.1683822958453</v>
       </c>
-      <c r="AA19" s="3">
+      <c r="AA19" s="4">
         <v>-196.09127049258149</v>
       </c>
-      <c r="AB19" s="3">
+      <c r="AB19" s="4">
         <v>-11.18621458767913</v>
       </c>
-      <c r="AC19" s="3">
+      <c r="AC19" s="4">
         <v>-83.581989454862779</v>
       </c>
-      <c r="AD19" s="3">
+      <c r="AD19" s="4">
         <v>-18.834400946139759</v>
       </c>
-      <c r="AE19" s="3">
+      <c r="AE19" s="4">
         <v>-64.719853319112843</v>
       </c>
-      <c r="AF19" s="3">
+      <c r="AF19" s="4">
         <v>-94.856436080131147</v>
       </c>
-      <c r="AG19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="3">
+      <c r="AG19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="4">
         <v>-94.856436080131147</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19" s="4">
         <v>-1.415647797007298</v>
       </c>
-      <c r="AJ19" s="3">
+      <c r="AJ19" s="4">
         <v>-0.47974615431751988</v>
       </c>
-      <c r="AK19" s="3">
+      <c r="AK19" s="4">
         <v>-0.93590164268977694</v>
       </c>
-      <c r="AL19" s="3">
+      <c r="AL19" s="4">
         <v>1.196178884306736</v>
       </c>
-      <c r="AM19" s="3">
+      <c r="AM19" s="4">
         <v>4.4955144539304817</v>
       </c>
-      <c r="AN19" s="3">
+      <c r="AN19" s="4">
         <v>-3.2993355696237181</v>
       </c>
-      <c r="AO19" s="3">
-        <v>12.70783985533865</v>
-      </c>
-      <c r="AP19" s="3">
-        <v>12.709718578023271</v>
-      </c>
-      <c r="AQ19" s="3">
+      <c r="AO19" s="4">
+        <v>25.384441855524379</v>
+      </c>
+      <c r="AP19" s="4">
+        <v>25.386320578208991</v>
+      </c>
+      <c r="AQ19" s="4">
         <v>-1.878722684611048E-3</v>
       </c>
     </row>
@@ -7445,130 +7448,130 @@
       <c r="A20" s="2">
         <v>44469</v>
       </c>
-      <c r="B20" s="3">
-        <v>-4.4545928646085713</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="4">
+        <v>-656.12523981873278</v>
+      </c>
+      <c r="C20" s="4">
         <v>10.555615856416811</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="4">
         <v>-92.241782252054463</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>21.2091170855374</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>9.2403175994628555</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="4">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4">
         <v>-109.1720230939701</v>
       </c>
-      <c r="I20" s="3">
-        <v>-4.4522760604104414</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="I20" s="4">
+        <v>-656.12292301453454</v>
+      </c>
+      <c r="J20" s="4">
         <v>11.990345304485571</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <v>-91.748340590968837</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="4">
         <v>3.425421371580796</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="4">
         <v>8.3831341700764028</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="N20" s="4">
+        <v>0</v>
+      </c>
+      <c r="O20" s="4">
         <v>-108.8327532509788</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="4">
         <v>-2.3168041981753711E-3</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="4">
         <v>-1.4347294480688499</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="4">
         <v>-0.49344166108545551</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="4">
         <v>17.783695713956831</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="4">
         <v>0.85718342938645264</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="U20" s="4">
+        <v>0</v>
+      </c>
+      <c r="V20" s="4">
         <v>-0.33926984299134227</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="4">
         <v>15.902710001403671</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="4">
         <v>19.571308001880858</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Y20" s="4">
         <v>-3.6685980004771408</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="Z20" s="4">
         <v>-255.41549155055171</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AA20" s="4">
         <v>-286.25632568386152</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AB20" s="4">
         <v>30.813344754297319</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AC20" s="4">
         <v>-193.7989157479654</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AD20" s="4">
         <v>-10.46883885128525</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AE20" s="4">
         <v>-183.32274505842071</v>
       </c>
-      <c r="AF20" s="3">
+      <c r="AF20" s="4">
         <v>-33.777164105758402</v>
       </c>
-      <c r="AG20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="3">
+      <c r="AG20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="4">
         <v>-33.777164105758402</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20" s="4">
         <v>-1.4386341848415991</v>
       </c>
-      <c r="AJ20" s="3">
+      <c r="AJ20" s="4">
         <v>-0.50032349483675309</v>
       </c>
-      <c r="AK20" s="3">
+      <c r="AK20" s="4">
         <v>-0.93831069000484657</v>
       </c>
-      <c r="AL20" s="3">
+      <c r="AL20" s="4">
         <v>-1.924713248288354</v>
       </c>
-      <c r="AM20" s="3">
+      <c r="AM20" s="4">
         <v>4.4447424591350959</v>
       </c>
-      <c r="AN20" s="3">
+      <c r="AN20" s="4">
         <v>-6.3694557074234224</v>
       </c>
-      <c r="AO20" s="3">
-        <v>15.794348539243661</v>
-      </c>
-      <c r="AP20" s="3">
-        <v>15.796106569409361</v>
-      </c>
-      <c r="AQ20" s="3">
+      <c r="AO20" s="4">
+        <v>-24.239919658254319</v>
+      </c>
+      <c r="AP20" s="4">
+        <v>-24.238161628088619</v>
+      </c>
+      <c r="AQ20" s="4">
         <v>-1.7580301656966279E-3</v>
       </c>
     </row>
@@ -7576,130 +7579,130 @@
       <c r="A21" s="2">
         <v>44561</v>
       </c>
-      <c r="B21" s="3">
-        <v>-459.05598004111141</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="4">
+        <v>-22.43016732815676</v>
+      </c>
+      <c r="C21" s="4">
         <v>24.470825425664319</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="4">
         <v>-17.12044128089838</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>29.712789611790871</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>41.752973397538653</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4">
         <v>-0.33431329085384931</v>
       </c>
-      <c r="I21" s="3">
-        <v>-459.05389733951898</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="I21" s="4">
+        <v>-22.428084626564409</v>
+      </c>
+      <c r="J21" s="4">
         <v>25.884594238830228</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <v>-17.102507164972391</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="4">
         <v>22.850773203580498</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="4">
         <v>41.422220619718622</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
         <v>-2.0827015923458041E-3</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="4">
         <v>-1.4137688131659161</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="4">
         <v>-1.7934115926095728E-2</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="4">
         <v>6.862016408210593</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="4">
         <v>0.33075277781998119</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
         <v>-0.33431329085384931</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="4">
         <v>17.26708351697091</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="4">
         <v>18.01996236851949</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="4">
         <v>-0.75287885154860068</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="Z21" s="4">
         <v>-107.23391348060029</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="4">
         <v>-95.144377133347021</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="4">
         <v>-12.06216875244823</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AC21" s="4">
         <v>-86.567932488268198</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AD21" s="4">
         <v>-11.636520244988571</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AE21" s="4">
         <v>-74.904044648474539</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AF21" s="4">
         <v>-1.0118189147279439</v>
       </c>
-      <c r="AG21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="3">
+      <c r="AG21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="4">
         <v>-1.0118189147279439</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AI21" s="4">
         <v>-2.175774162182766</v>
       </c>
-      <c r="AJ21" s="3">
+      <c r="AJ21" s="4">
         <v>-1.25616426572224</v>
       </c>
-      <c r="AK21" s="3">
+      <c r="AK21" s="4">
         <v>-0.91960989646052327</v>
       </c>
-      <c r="AL21" s="3">
+      <c r="AL21" s="4">
         <v>-3.9329952961306298</v>
       </c>
-      <c r="AM21" s="3">
+      <c r="AM21" s="4">
         <v>3.139330662140754</v>
       </c>
-      <c r="AN21" s="3">
+      <c r="AN21" s="4">
         <v>-7.0723259582714144</v>
       </c>
-      <c r="AO21" s="3">
-        <v>-16.700988373517252</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>-16.699334857369621</v>
-      </c>
-      <c r="AQ21" s="3">
+      <c r="AO21" s="4">
+        <v>-10.93306020797622</v>
+      </c>
+      <c r="AP21" s="4">
+        <v>-10.93140669182859</v>
+      </c>
+      <c r="AQ21" s="4">
         <v>-1.653516147618861E-3</v>
       </c>
     </row>
@@ -7707,130 +7710,130 @@
       <c r="A22" s="2">
         <v>44651</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <v>-46.435711894833517</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="4">
         <v>66.030085801823589</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="4">
         <v>2.8875181038936262</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>23.66214240544377</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>41.070091556275088</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
         <v>-0.36322058555199987</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="4">
         <v>-46.43330494731039</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <v>24.626763024895581</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <v>2.5658847505339959</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="4">
         <v>20.226157924397739</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="4">
         <v>40.901891770373993</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
         <v>-2.406947523125091E-3</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="4">
         <v>41.403322776927837</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="4">
         <v>0.32163335335962978</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="4">
         <v>3.4359844810455802</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="4">
         <v>0.16819978590108059</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
+      <c r="U22" s="4">
+        <v>0</v>
+      </c>
+      <c r="V22" s="4">
         <v>-0.36322058555199987</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="4">
         <v>26.512048642035349</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="4">
         <v>18.132324146515899</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Y22" s="4">
         <v>8.379724495519369</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="Z22" s="4">
         <v>-99.554195260372751</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AA22" s="4">
         <v>-91.857235306509494</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AB22" s="4">
         <v>-7.689995710408895</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AC22" s="4">
         <v>-69.347703774960536</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AD22" s="4">
         <v>-7.4614510106909853</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AE22" s="4">
         <v>-61.879288520815173</v>
       </c>
-      <c r="AF22" s="3">
+      <c r="AF22" s="4">
         <v>-1.0118189147279439</v>
       </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
+      <c r="AG22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="4">
         <v>-1.0118189147279439</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AI22" s="4">
         <v>-4.1346028308127698</v>
       </c>
-      <c r="AJ22" s="3">
+      <c r="AJ22" s="4">
         <v>-3.3633134154530282</v>
       </c>
-      <c r="AK22" s="3">
+      <c r="AK22" s="4">
         <v>-0.77128941535974016</v>
       </c>
-      <c r="AL22" s="3">
+      <c r="AL22" s="4">
         <v>-3.6667676238646529</v>
       </c>
-      <c r="AM22" s="3">
+      <c r="AM22" s="4">
         <v>1.8005868501267741</v>
       </c>
-      <c r="AN22" s="3">
+      <c r="AN22" s="4">
         <v>-5.4673544739914002</v>
       </c>
-      <c r="AO22" s="3">
-        <v>-12.19825201463075</v>
-      </c>
-      <c r="AP22" s="3">
-        <v>-12.19663627990837</v>
-      </c>
-      <c r="AQ22" s="3">
+      <c r="AO22" s="4">
+        <v>-12.161658166255039</v>
+      </c>
+      <c r="AP22" s="4">
+        <v>-12.160042431532659</v>
+      </c>
+      <c r="AQ22" s="4">
         <v>-1.6157347223703441E-3</v>
       </c>
     </row>
@@ -7838,130 +7841,130 @@
       <c r="A23" s="2">
         <v>44742</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <v>-0.3419704855850938</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="4">
         <v>21.552915849763171</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="4">
         <v>23.24759234858789</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>20.172490743967501</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>40.477643102674392</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4">
         <v>-0.3852676954517591</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="4">
         <v>-0.33927784228070829</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <v>23.558144864495262</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <v>-15.60628973884991</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <v>18.0805892195749</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="4">
         <v>40.37680971545683</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
         <v>-2.69264330439134E-3</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="4">
         <v>-2.005229014732294</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="4">
         <v>38.85388208743791</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="4">
         <v>2.0919015243930521</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="4">
         <v>0.1008333872175626</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="U23" s="4">
+        <v>0</v>
+      </c>
+      <c r="V23" s="4">
         <v>-0.3852676954517591</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="4">
         <v>27.587124660075268</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="4">
         <v>19.363465672358991</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23" s="4">
         <v>8.2236589877161759</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23" s="4">
         <v>-99.194798663188976</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23" s="4">
         <v>-105.622031431534</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AB23" s="4">
         <v>6.427232768345073</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AC23" s="4">
         <v>-19.083279305354999</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AD23" s="4">
         <v>-2.272198656006776</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AE23" s="4">
         <v>-16.81108064934822</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AF23" s="4">
         <v>-61.385418914727943</v>
       </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
+      <c r="AG23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="4">
         <v>-61.385418914727943</v>
       </c>
-      <c r="AI23" s="3">
+      <c r="AI23" s="4">
         <v>-5.2329161797914558</v>
       </c>
-      <c r="AJ23" s="3">
+      <c r="AJ23" s="4">
         <v>-4.4400869551473212</v>
       </c>
-      <c r="AK23" s="3">
+      <c r="AK23" s="4">
         <v>-0.79282922464413241</v>
       </c>
-      <c r="AL23" s="3">
+      <c r="AL23" s="4">
         <v>-25.704922196785279</v>
       </c>
-      <c r="AM23" s="3">
+      <c r="AM23" s="4">
         <v>-15.37890683914031</v>
       </c>
-      <c r="AN23" s="3">
+      <c r="AN23" s="4">
         <v>-10.326015357644961</v>
       </c>
-      <c r="AO23" s="3">
-        <v>-14.519355440004039</v>
-      </c>
-      <c r="AP23" s="3">
-        <v>-14.51783398887982</v>
-      </c>
-      <c r="AQ23" s="3">
+      <c r="AO23" s="4">
+        <v>-13.061507116936131</v>
+      </c>
+      <c r="AP23" s="4">
+        <v>-13.05998566581192</v>
+      </c>
+      <c r="AQ23" s="4">
         <v>-1.521451124215599E-3</v>
       </c>
     </row>
@@ -7969,130 +7972,130 @@
       <c r="A24" s="2">
         <v>44834</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <v>-0.35558516818218783</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="4">
         <v>18.53739234416139</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="4">
         <v>-3.4429761412714019</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>19.41382228798102</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>40.042650366026351</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>-0.3936891907109441</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="4">
         <v>-0.35278532415291858</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <v>22.936103474052292</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <v>-39.744669735398467</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="4">
         <v>16.979616790725689</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="4">
         <v>39.925317316353762</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
         <v>-2.799844029264031E-3</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="4">
         <v>-4.3987111298908994</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="4">
         <v>36.301693594127158</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="4">
         <v>2.4342054972544251</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="4">
         <v>0.1173330496726095</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
+      <c r="U24" s="4">
+        <v>0</v>
+      </c>
+      <c r="V24" s="4">
         <v>-0.3936891907109441</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="4">
         <v>29.3830243698178</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="4">
         <v>21.826261260511512</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24" s="4">
         <v>7.556763109306214</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24" s="4">
         <v>-31.07694046136568</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24" s="4">
         <v>-46.992828496228327</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AB24" s="4">
         <v>15.915888034862681</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AC24" s="4">
         <v>-31.190545852825871</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AD24" s="4">
         <v>-1.0624488219120101</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AE24" s="4">
         <v>-30.12809703091386</v>
       </c>
-      <c r="AF24" s="3">
+      <c r="AF24" s="4">
         <v>-1.140025540359944</v>
       </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="3">
+      <c r="AG24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="4">
         <v>-1.140025540359944</v>
       </c>
-      <c r="AI24" s="3">
+      <c r="AI24" s="4">
         <v>-7.3630627875215042</v>
       </c>
-      <c r="AJ24" s="3">
+      <c r="AJ24" s="4">
         <v>-6.5845241138464461</v>
       </c>
-      <c r="AK24" s="3">
+      <c r="AK24" s="4">
         <v>-0.77853867367505603</v>
       </c>
-      <c r="AL24" s="3">
+      <c r="AL24" s="4">
         <v>-15.035936824685759</v>
       </c>
-      <c r="AM24" s="3">
+      <c r="AM24" s="4">
         <v>-8.7955342450893568</v>
       </c>
-      <c r="AN24" s="3">
+      <c r="AN24" s="4">
         <v>-6.2404025795963332</v>
       </c>
-      <c r="AO24" s="3">
-        <v>-12.609124399111771</v>
-      </c>
-      <c r="AP24" s="3">
-        <v>-12.60768749948296</v>
-      </c>
-      <c r="AQ24" s="3">
+      <c r="AO24" s="4">
+        <v>-9.7400443513361843</v>
+      </c>
+      <c r="AP24" s="4">
+        <v>-9.7386074517073862</v>
+      </c>
+      <c r="AQ24" s="4">
         <v>-1.436899628799324E-3</v>
       </c>
     </row>
@@ -8100,130 +8103,130 @@
       <c r="A25" s="2">
         <v>44926</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <v>-0.34342017301220551</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="4">
         <v>-13.883913521831349</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="4">
         <v>20.84743431755146</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>18.329791617628871</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>21.252917071264282</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="4">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4">
         <v>-0.38758951294344968</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="4">
         <v>-0.34071611500591809</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <v>-9.5607080700137885</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <v>-12.63800951267444</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <v>15.485900855049749</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <v>21.115836460574091</v>
       </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
+      <c r="N25" s="4">
+        <v>0</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
         <v>-2.7040580062778212E-3</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="4">
         <v>-4.3232054518173868</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="4">
         <v>33.485443830225961</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="4">
         <v>2.843890762579576</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="4">
         <v>0.13708061069024779</v>
       </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
+      <c r="U25" s="4">
+        <v>0</v>
+      </c>
+      <c r="V25" s="4">
         <v>-0.38758951294344968</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="4">
         <v>20.753208106631281</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="4">
         <v>13.851068241021601</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25" s="4">
         <v>6.9021398656096329</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25" s="4">
         <v>4.2930422774637034</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25" s="4">
         <v>-19.879776639230631</v>
       </c>
-      <c r="AB25" s="3">
+      <c r="AB25" s="4">
         <v>24.172818916694389</v>
       </c>
-      <c r="AC25" s="3">
+      <c r="AC25" s="4">
         <v>-5.241251874258551</v>
       </c>
-      <c r="AD25" s="3">
+      <c r="AD25" s="4">
         <v>-0.34377797796450588</v>
       </c>
-      <c r="AE25" s="3">
+      <c r="AE25" s="4">
         <v>-4.8974738962940449</v>
       </c>
-      <c r="AF25" s="3">
+      <c r="AF25" s="4">
         <v>-0.26210878974910018</v>
       </c>
-      <c r="AG25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="3">
+      <c r="AG25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="4">
         <v>-0.26210878974910018</v>
       </c>
-      <c r="AI25" s="3">
+      <c r="AI25" s="4">
         <v>-7.1707266418025846</v>
       </c>
-      <c r="AJ25" s="3">
+      <c r="AJ25" s="4">
         <v>-6.4080982878239583</v>
       </c>
-      <c r="AK25" s="3">
+      <c r="AK25" s="4">
         <v>-0.76262835397862649</v>
       </c>
-      <c r="AL25" s="3">
+      <c r="AL25" s="4">
         <v>-13.51739766290973</v>
       </c>
-      <c r="AM25" s="3">
+      <c r="AM25" s="4">
         <v>-8.779889012091143</v>
       </c>
-      <c r="AN25" s="3">
+      <c r="AN25" s="4">
         <v>-4.7375086508185351</v>
       </c>
-      <c r="AO25" s="3">
-        <v>-3.7715267836673871</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>-3.770150931424038</v>
-      </c>
-      <c r="AQ25" s="3">
+      <c r="AO25" s="4">
+        <v>-3.7678036318205721</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>-3.7664277795772261</v>
+      </c>
+      <c r="AQ25" s="4">
         <v>-1.375852243344461E-3</v>
       </c>
     </row>
@@ -8236,55 +8239,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D1CC7B1-76AB-F44B-8205-F2588094532B}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="29" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="26" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">

--- a/results/12-2020/fim_stimulus_net_xmpc_changes.xlsx
+++ b/results/12-2020/fim_stimulus_net_xmpc_changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/results/12-2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1186C81-0CC5-7B44-B646-5AC1619A571A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0844E6EB-0512-224C-9F41-45BDB7516B6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,10 +559,10 @@
   <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomRight" activeCell="AQ17" sqref="AQ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="K16" s="3">
         <f>stimulus!K16-'no-stimulus'!K16</f>
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="L16" s="3">
         <f>stimulus!L16-'no-stimulus'!L16</f>
@@ -3235,7 +3235,7 @@
       </c>
       <c r="R16" s="3">
         <f>stimulus!R16-'no-stimulus'!R16</f>
-        <v>-43</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3">
         <f>stimulus!S16-'no-stimulus'!S16</f>
@@ -3271,11 +3271,11 @@
       </c>
       <c r="AA16" s="3">
         <f>stimulus!AA16-'no-stimulus'!AA16</f>
-        <v>9.6749999999999829</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="3">
         <f>stimulus!AB16-'no-stimulus'!AB16</f>
-        <v>-9.6749999999999989</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="3">
         <f>stimulus!AC16-'no-stimulus'!AC16</f>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="D17" s="3">
         <f>stimulus!D17-'no-stimulus'!D17</f>
-        <v>-4.3893666698077141</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <f>stimulus!E17-'no-stimulus'!E17</f>
@@ -3380,7 +3380,7 @@
       </c>
       <c r="K17" s="3">
         <f>stimulus!K17-'no-stimulus'!K17</f>
-        <v>-4.4943440922737068</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <f>stimulus!L17-'no-stimulus'!L17</f>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="R17" s="3">
         <f>stimulus!R17-'no-stimulus'!R17</f>
-        <v>0.10497742246599273</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <f>stimulus!S17-'no-stimulus'!S17</f>
@@ -3440,15 +3440,15 @@
       </c>
       <c r="Z17" s="3">
         <f>stimulus!Z17-'no-stimulus'!Z17</f>
-        <v>-0.98760750070670156</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="3">
         <f>stimulus!AA17-'no-stimulus'!AA17</f>
-        <v>8.6637725792383833</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="3">
         <f>stimulus!AB17-'no-stimulus'!AB17</f>
-        <v>-9.6513800799451417</v>
+        <v>0</v>
       </c>
       <c r="AC17" s="3">
         <f>stimulus!AC17-'no-stimulus'!AC17</f>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D18" s="3">
         <f>stimulus!D18-'no-stimulus'!D18</f>
-        <v>53.511953016508187</v>
+        <v>57.000000000000455</v>
       </c>
       <c r="E18" s="3">
         <f>stimulus!E18-'no-stimulus'!E18</f>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="K18" s="3">
         <f>stimulus!K18-'no-stimulus'!K18</f>
-        <v>53.380013737271838</v>
+        <v>57.000000000000448</v>
       </c>
       <c r="L18" s="3">
         <f>stimulus!L18-'no-stimulus'!L18</f>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="R18" s="3">
         <f>stimulus!R18-'no-stimulus'!R18</f>
-        <v>0.13193927923575188</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <f>stimulus!S18-'no-stimulus'!S18</f>
@@ -3613,15 +3613,15 @@
       </c>
       <c r="Z18" s="3">
         <f>stimulus!Z18-'no-stimulus'!Z18</f>
-        <v>324.93258192800772</v>
+        <v>326.70500000000021</v>
       </c>
       <c r="AA18" s="3">
         <f>stimulus!AA18-'no-stimulus'!AA18</f>
-        <v>334.55427567012464</v>
+        <v>326.70500000000015</v>
       </c>
       <c r="AB18" s="3">
         <f>stimulus!AB18-'no-stimulus'!AB18</f>
-        <v>-9.621693742117106</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="3">
         <f>stimulus!AC18-'no-stimulus'!AC18</f>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D19" s="3">
         <f>stimulus!D19-'no-stimulus'!D19</f>
-        <v>-3.2272954834029406</v>
+        <v>-0.40179112025884933</v>
       </c>
       <c r="E19" s="3">
         <f>stimulus!E19-'no-stimulus'!E19</f>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="K19" s="3">
         <f>stimulus!K19-'no-stimulus'!K19</f>
-        <v>-3.4238803157973088</v>
+        <v>-0.40179112025931119</v>
       </c>
       <c r="L19" s="3">
         <f>stimulus!L19-'no-stimulus'!L19</f>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="R19" s="3">
         <f>stimulus!R19-'no-stimulus'!R19</f>
-        <v>0.19658483239413727</v>
+        <v>0</v>
       </c>
       <c r="S19" s="3">
         <f>stimulus!S19-'no-stimulus'!S19</f>
@@ -3786,15 +3786,15 @@
       </c>
       <c r="Z19" s="3">
         <f>stimulus!Z19-'no-stimulus'!Z19</f>
-        <v>-84.846089324649199</v>
+        <v>-82.437932770949203</v>
       </c>
       <c r="AA19" s="3">
         <f>stimulus!AA19-'no-stimulus'!AA19</f>
-        <v>-75.268627169820888</v>
+        <v>-82.437932770949402</v>
       </c>
       <c r="AB19" s="3">
         <f>stimulus!AB19-'no-stimulus'!AB19</f>
-        <v>-9.5774621548284191</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="3">
         <f>stimulus!AC19-'no-stimulus'!AC19</f>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D20" s="3">
         <f>stimulus!D20-'no-stimulus'!D20</f>
-        <v>-54.556064755816351</v>
+        <v>-52.439508660238971</v>
       </c>
       <c r="E20" s="3">
         <f>stimulus!E20-'no-stimulus'!E20</f>
@@ -3899,7 +3899,7 @@
       </c>
       <c r="K20" s="3">
         <f>stimulus!K20-'no-stimulus'!K20</f>
-        <v>-54.673500301599006</v>
+        <v>-52.439508660238744</v>
       </c>
       <c r="L20" s="3">
         <f>stimulus!L20-'no-stimulus'!L20</f>
@@ -3927,7 +3927,7 @@
       </c>
       <c r="R20" s="3">
         <f>stimulus!R20-'no-stimulus'!R20</f>
-        <v>0.11743554578271187</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <f>stimulus!S20-'no-stimulus'!S20</f>
@@ -3959,15 +3959,15 @@
       </c>
       <c r="Z20" s="3">
         <f>stimulus!Z20-'no-stimulus'!Z20</f>
-        <v>-144.04193192033512</v>
+        <v>-141.15755024513032</v>
       </c>
       <c r="AA20" s="3">
         <f>stimulus!AA20-'no-stimulus'!AA20</f>
-        <v>-144.16589276330791</v>
+        <v>-141.15755024513027</v>
       </c>
       <c r="AB20" s="3">
         <f>stimulus!AB20-'no-stimulus'!AB20</f>
-        <v>0.12396084297269994</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="3">
         <f>stimulus!AC20-'no-stimulus'!AC20</f>
@@ -4044,7 +4044,7 @@
       </c>
       <c r="D21" s="3">
         <f>stimulus!D21-'no-stimulus'!D21</f>
-        <v>0.79197908577430098</v>
+        <v>-3.7990146687889137E-2</v>
       </c>
       <c r="E21" s="3">
         <f>stimulus!E21-'no-stimulus'!E21</f>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="K21" s="3">
         <f>stimulus!K21-'no-stimulus'!K21</f>
-        <v>0.78771089591942101</v>
+        <v>-3.7990146687889137E-2</v>
       </c>
       <c r="L21" s="3">
         <f>stimulus!L21-'no-stimulus'!L21</f>
@@ -4100,7 +4100,7 @@
       </c>
       <c r="R21" s="3">
         <f>stimulus!R21-'no-stimulus'!R21</f>
-        <v>4.2681898550540609E-3</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
         <f>stimulus!S21-'no-stimulus'!S21</f>
@@ -4132,15 +4132,15 @@
       </c>
       <c r="Z21" s="3">
         <f>stimulus!Z21-'no-stimulus'!Z21</f>
-        <v>-1.3494954959138994</v>
+        <v>0.36053560128019058</v>
       </c>
       <c r="AA21" s="3">
         <f>stimulus!AA21-'no-stimulus'!AA21</f>
-        <v>-1.4507967615491708</v>
+        <v>0.36053560128023321</v>
       </c>
       <c r="AB21" s="3">
         <f>stimulus!AB21-'no-stimulus'!AB21</f>
-        <v>0.10130126563521991</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="3">
         <f>stimulus!AC21-'no-stimulus'!AC21</f>
@@ -4217,7 +4217,7 @@
       </c>
       <c r="D22" s="3">
         <f>stimulus!D22-'no-stimulus'!D22</f>
-        <v>0.37752898895337239</v>
+        <v>8.891166956800145E-3</v>
       </c>
       <c r="E22" s="3">
         <f>stimulus!E22-'no-stimulus'!E22</f>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="K22" s="3">
         <f>stimulus!K22-'no-stimulus'!K22</f>
-        <v>0.45407540035807781</v>
+        <v>8.8911669570279628E-3</v>
       </c>
       <c r="L22" s="3">
         <f>stimulus!L22-'no-stimulus'!L22</f>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="R22" s="3">
         <f>stimulus!R22-'no-stimulus'!R22</f>
-        <v>-7.6546411404706305E-2</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <f>stimulus!S22-'no-stimulus'!S22</f>
@@ -4305,15 +4305,15 @@
       </c>
       <c r="Z22" s="3">
         <f>stimulus!Z22-'no-stimulus'!Z22</f>
-        <v>-34.904740902113673</v>
+        <v>-34.062463886154561</v>
       </c>
       <c r="AA22" s="3">
         <f>stimulus!AA22-'no-stimulus'!AA22</f>
-        <v>-34.959132887354777</v>
+        <v>-34.062463886154553</v>
       </c>
       <c r="AB22" s="3">
         <f>stimulus!AB22-'no-stimulus'!AB22</f>
-        <v>5.4391985241119656E-2</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="3">
         <f>stimulus!AC22-'no-stimulus'!AC22</f>
@@ -4390,7 +4390,7 @@
       </c>
       <c r="D23" s="3">
         <f>stimulus!D23-'no-stimulus'!D23</f>
-        <v>7.4363168859239437E-2</v>
+        <v>-4.634736357411029E-2</v>
       </c>
       <c r="E23" s="3">
         <f>stimulus!E23-'no-stimulus'!E23</f>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="K23" s="3">
         <f>stimulus!K23-'no-stimulus'!K23</f>
-        <v>0.15312363019871</v>
+        <v>-4.6347363574341216E-2</v>
       </c>
       <c r="L23" s="3">
         <f>stimulus!L23-'no-stimulus'!L23</f>
@@ -4446,7 +4446,7 @@
       </c>
       <c r="R23" s="3">
         <f>stimulus!R23-'no-stimulus'!R23</f>
-        <v>-7.8760461339498988E-2</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <f>stimulus!S23-'no-stimulus'!S23</f>
@@ -4478,15 +4478,15 @@
       </c>
       <c r="Z23" s="3">
         <f>stimulus!Z23-'no-stimulus'!Z23</f>
-        <v>-12.409610017677693</v>
+        <v>-12.230231353223516</v>
       </c>
       <c r="AA23" s="3">
         <f>stimulus!AA23-'no-stimulus'!AA23</f>
-        <v>-12.402049311828677</v>
+        <v>-12.230231353223473</v>
       </c>
       <c r="AB23" s="3">
         <f>stimulus!AB23-'no-stimulus'!AB23</f>
-        <v>-7.5607058489488566E-3</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="3">
         <f>stimulus!AC23-'no-stimulus'!AC23</f>
@@ -4563,7 +4563,7 @@
       </c>
       <c r="D24" s="3">
         <f>stimulus!D24-'no-stimulus'!D24</f>
-        <v>-0.26046252763899291</v>
+        <v>-0.11970521719854288</v>
       </c>
       <c r="E24" s="3">
         <f>stimulus!E24-'no-stimulus'!E24</f>
@@ -4591,7 +4591,7 @@
       </c>
       <c r="K24" s="3">
         <f>stimulus!K24-'no-stimulus'!K24</f>
-        <v>-0.24047435110855986</v>
+        <v>-0.11970521719855043</v>
       </c>
       <c r="L24" s="3">
         <f>stimulus!L24-'no-stimulus'!L24</f>
@@ -4619,7 +4619,7 @@
       </c>
       <c r="R24" s="3">
         <f>stimulus!R24-'no-stimulus'!R24</f>
-        <v>-1.9988176530461033E-2</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <f>stimulus!S24-'no-stimulus'!S24</f>
@@ -4651,15 +4651,15 @@
       </c>
       <c r="Z24" s="3">
         <f>stimulus!Z24-'no-stimulus'!Z24</f>
-        <v>-21.793099516337797</v>
+        <v>-22.058275578539416</v>
       </c>
       <c r="AA24" s="3">
         <f>stimulus!AA24-'no-stimulus'!AA24</f>
-        <v>-21.754618472968357</v>
+        <v>-22.058275578539419</v>
       </c>
       <c r="AB24" s="3">
         <f>stimulus!AB24-'no-stimulus'!AB24</f>
-        <v>-3.8481043369410273E-2</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="3">
         <f>stimulus!AC24-'no-stimulus'!AC24</f>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="D25" s="3">
         <f>stimulus!D25-'no-stimulus'!D25</f>
-        <v>-0.15846143221596876</v>
+        <v>-3.8353770802810772E-2</v>
       </c>
       <c r="E25" s="3">
         <f>stimulus!E25-'no-stimulus'!E25</f>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="K25" s="3">
         <f>stimulus!K25-'no-stimulus'!K25</f>
-        <v>-0.1857773610802198</v>
+        <v>-3.8353770802579845E-2</v>
       </c>
       <c r="L25" s="3">
         <f>stimulus!L25-'no-stimulus'!L25</f>
@@ -4792,7 +4792,7 @@
       </c>
       <c r="R25" s="3">
         <f>stimulus!R25-'no-stimulus'!R25</f>
-        <v>2.7315928864481975E-2</v>
+        <v>0</v>
       </c>
       <c r="S25" s="3">
         <f>stimulus!S25-'no-stimulus'!S25</f>
@@ -4824,15 +4824,15 @@
       </c>
       <c r="Z25" s="3">
         <f>stimulus!Z25-'no-stimulus'!Z25</f>
-        <v>-0.25469094520863056</v>
+        <v>-0.3060997062883013</v>
       </c>
       <c r="AA25" s="3">
         <f>stimulus!AA25-'no-stimulus'!AA25</f>
-        <v>-0.22139564311629911</v>
+        <v>-0.30609970628824712</v>
       </c>
       <c r="AB25" s="3">
         <f>stimulus!AB25-'no-stimulus'!AB25</f>
-        <v>-3.3295302092291479E-2</v>
+        <v>0</v>
       </c>
       <c r="AC25" s="3">
         <f>stimulus!AC25-'no-stimulus'!AC25</f>
@@ -4904,8 +4904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6952,7 +6952,7 @@
         <v>-24.471854983845329</v>
       </c>
       <c r="K16" s="4">
-        <v>53.324705748341557</v>
+        <v>10.324705748341559</v>
       </c>
       <c r="L16" s="4">
         <v>123.4559522245695</v>
@@ -6973,7 +6973,7 @@
         <v>39.539994558195929</v>
       </c>
       <c r="R16" s="4">
-        <v>-149.97787387051631</v>
+        <v>-106.97787387051631</v>
       </c>
       <c r="S16" s="4">
         <v>69.5259728142737</v>
@@ -7000,10 +7000,10 @@
         <v>154.1181408921864</v>
       </c>
       <c r="AA16" s="4">
-        <v>142.44563730645669</v>
+        <v>132.77063730645671</v>
       </c>
       <c r="AB16" s="4">
-        <v>11.659310288431181</v>
+        <v>21.33431028843118</v>
       </c>
       <c r="AC16" s="4">
         <v>261.06970637466128</v>
@@ -7062,7 +7062,7 @@
         <v>18.40694313425433</v>
       </c>
       <c r="D17" s="4">
-        <v>-53.499328477448671</v>
+        <v>-49.109961807640957</v>
       </c>
       <c r="E17" s="4">
         <v>41.79607852089066</v>
@@ -7083,7 +7083,7 @@
         <v>32.779463720436297</v>
       </c>
       <c r="K17" s="4">
-        <v>-239.00429805180721</v>
+        <v>-234.5099539595335</v>
       </c>
       <c r="L17" s="4">
         <v>13.15196637382815</v>
@@ -7104,7 +7104,7 @@
         <v>-14.372520586181651</v>
       </c>
       <c r="R17" s="4">
-        <v>185.350208608706</v>
+        <v>185.24523118624001</v>
       </c>
       <c r="S17" s="4">
         <v>28.644112147062739</v>
@@ -7128,13 +7128,13 @@
         <v>-6.3865827570343736</v>
       </c>
       <c r="Z17" s="4">
-        <v>-167.37953815619281</v>
+        <v>-166.39193065548611</v>
       </c>
       <c r="AA17" s="4">
-        <v>-143.0499200804696</v>
+        <v>-151.71369265970799</v>
       </c>
       <c r="AB17" s="4">
-        <v>-24.193882886113041</v>
+        <v>-14.542502806167899</v>
       </c>
       <c r="AC17" s="4">
         <v>-143.5479825742421</v>
@@ -7193,7 +7193,7 @@
         <v>24.941351912648319</v>
       </c>
       <c r="D18" s="4">
-        <v>45.28978696202762</v>
+        <v>48.777833945519887</v>
       </c>
       <c r="E18" s="4">
         <v>32.012585136294547</v>
@@ -7214,7 +7214,7 @@
         <v>24.127377344911569</v>
       </c>
       <c r="K18" s="4">
-        <v>45.844170531964437</v>
+        <v>49.464156794693046</v>
       </c>
       <c r="L18" s="4">
         <v>10.96526462273096</v>
@@ -7235,7 +7235,7 @@
         <v>0.81397456773686372</v>
       </c>
       <c r="R18" s="4">
-        <v>-0.55438356993704474</v>
+        <v>-0.68632284917279662</v>
       </c>
       <c r="S18" s="4">
         <v>21.047320513563822</v>
@@ -7259,13 +7259,13 @@
         <v>-4.19474759532185</v>
       </c>
       <c r="Z18" s="4">
-        <v>218.07047110690471</v>
+        <v>219.8428891788972</v>
       </c>
       <c r="AA18" s="4">
-        <v>236.94939004518719</v>
+        <v>229.1001143750627</v>
       </c>
       <c r="AB18" s="4">
-        <v>-18.84520050542595</v>
+        <v>-9.2235067633088441</v>
       </c>
       <c r="AC18" s="4">
         <v>23.35703075228043</v>
@@ -7324,7 +7324,7 @@
         <v>16.774800214030169</v>
       </c>
       <c r="D19" s="4">
-        <v>-23.279394885093101</v>
+        <v>-20.45389052194901</v>
       </c>
       <c r="E19" s="4">
         <v>23.033608254241699</v>
@@ -7345,7 +7345,7 @@
         <v>18.08640474963704</v>
       </c>
       <c r="K19" s="4">
-        <v>-22.453383087776729</v>
+        <v>-19.431293892238731</v>
       </c>
       <c r="L19" s="4">
         <v>5.8522419014366278</v>
@@ -7366,7 +7366,7 @@
         <v>-1.311604535606989</v>
       </c>
       <c r="R19" s="4">
-        <v>-0.82601179731656771</v>
+        <v>-1.022596629710705</v>
       </c>
       <c r="S19" s="4">
         <v>17.181366352804389</v>
@@ -7390,13 +7390,13 @@
         <v>5.5507149009324346</v>
       </c>
       <c r="Z19" s="4">
-        <v>-207.1683822958453</v>
+        <v>-204.76022574214531</v>
       </c>
       <c r="AA19" s="4">
-        <v>-196.09127049258149</v>
+        <v>-203.26057609371</v>
       </c>
       <c r="AB19" s="4">
-        <v>-11.18621458767913</v>
+        <v>-1.608752432850711</v>
       </c>
       <c r="AC19" s="4">
         <v>-83.581989454862779</v>
@@ -7455,7 +7455,7 @@
         <v>10.555615856416811</v>
       </c>
       <c r="D20" s="4">
-        <v>-92.241782252054463</v>
+        <v>-90.125226156477083</v>
       </c>
       <c r="E20" s="4">
         <v>21.2091170855374</v>
@@ -7476,7 +7476,7 @@
         <v>11.990345304485571</v>
       </c>
       <c r="K20" s="4">
-        <v>-91.748340590968837</v>
+        <v>-89.514348949608575</v>
       </c>
       <c r="L20" s="4">
         <v>3.425421371580796</v>
@@ -7497,7 +7497,7 @@
         <v>-1.4347294480688499</v>
       </c>
       <c r="R20" s="4">
-        <v>-0.49344166108545551</v>
+        <v>-0.61087720686816738</v>
       </c>
       <c r="S20" s="4">
         <v>17.783695713956831</v>
@@ -7521,13 +7521,13 @@
         <v>-3.6685980004771408</v>
       </c>
       <c r="Z20" s="4">
-        <v>-255.41549155055171</v>
+        <v>-252.53110987534691</v>
       </c>
       <c r="AA20" s="4">
-        <v>-286.25632568386152</v>
+        <v>-283.24798316568388</v>
       </c>
       <c r="AB20" s="4">
-        <v>30.813344754297319</v>
+        <v>30.689383911324619</v>
       </c>
       <c r="AC20" s="4">
         <v>-193.7989157479654</v>
@@ -7586,7 +7586,7 @@
         <v>24.470825425664319</v>
       </c>
       <c r="D21" s="4">
-        <v>-17.12044128089838</v>
+        <v>-17.95041051336057</v>
       </c>
       <c r="E21" s="4">
         <v>29.712789611790871</v>
@@ -7607,7 +7607,7 @@
         <v>25.884594238830228</v>
       </c>
       <c r="K21" s="4">
-        <v>-17.102507164972391</v>
+        <v>-17.928208207579701</v>
       </c>
       <c r="L21" s="4">
         <v>22.850773203580498</v>
@@ -7628,7 +7628,7 @@
         <v>-1.4137688131659161</v>
       </c>
       <c r="R21" s="4">
-        <v>-1.7934115926095728E-2</v>
+        <v>-2.2202305781149789E-2</v>
       </c>
       <c r="S21" s="4">
         <v>6.862016408210593</v>
@@ -7652,13 +7652,13 @@
         <v>-0.75287885154860068</v>
       </c>
       <c r="Z21" s="4">
-        <v>-107.23391348060029</v>
+        <v>-105.5238823834062</v>
       </c>
       <c r="AA21" s="4">
-        <v>-95.144377133347021</v>
+        <v>-93.333044770517617</v>
       </c>
       <c r="AB21" s="4">
-        <v>-12.06216875244823</v>
+        <v>-12.16347001808345</v>
       </c>
       <c r="AC21" s="4">
         <v>-86.567932488268198</v>
@@ -7717,7 +7717,7 @@
         <v>66.030085801823589</v>
       </c>
       <c r="D22" s="4">
-        <v>2.8875181038936262</v>
+        <v>2.5188802818970539</v>
       </c>
       <c r="E22" s="4">
         <v>23.66214240544377</v>
@@ -7738,7 +7738,7 @@
         <v>24.626763024895581</v>
       </c>
       <c r="K22" s="4">
-        <v>2.5658847505339959</v>
+        <v>2.1207005171329461</v>
       </c>
       <c r="L22" s="4">
         <v>20.226157924397739</v>
@@ -7759,7 +7759,7 @@
         <v>41.403322776927837</v>
       </c>
       <c r="R22" s="4">
-        <v>0.32163335335962978</v>
+        <v>0.39817976476433609</v>
       </c>
       <c r="S22" s="4">
         <v>3.4359844810455802</v>
@@ -7783,13 +7783,13 @@
         <v>8.379724495519369</v>
       </c>
       <c r="Z22" s="4">
-        <v>-99.554195260372751</v>
+        <v>-98.711918244413638</v>
       </c>
       <c r="AA22" s="4">
-        <v>-91.857235306509494</v>
+        <v>-90.960566305309271</v>
       </c>
       <c r="AB22" s="4">
-        <v>-7.689995710408895</v>
+        <v>-7.7443876956500146</v>
       </c>
       <c r="AC22" s="4">
         <v>-69.347703774960536</v>
@@ -7848,7 +7848,7 @@
         <v>21.552915849763171</v>
       </c>
       <c r="D23" s="4">
-        <v>23.24759234858789</v>
+        <v>23.12688181615454</v>
       </c>
       <c r="E23" s="4">
         <v>20.172490743967501</v>
@@ -7869,7 +7869,7 @@
         <v>23.558144864495262</v>
       </c>
       <c r="K23" s="4">
-        <v>-15.60628973884991</v>
+        <v>-15.805760732622961</v>
       </c>
       <c r="L23" s="4">
         <v>18.0805892195749</v>
@@ -7890,7 +7890,7 @@
         <v>-2.005229014732294</v>
       </c>
       <c r="R23" s="4">
-        <v>38.85388208743791</v>
+        <v>38.932642548777409</v>
       </c>
       <c r="S23" s="4">
         <v>2.0919015243930521</v>
@@ -7914,13 +7914,13 @@
         <v>8.2236589877161759</v>
       </c>
       <c r="Z23" s="4">
-        <v>-99.194798663188976</v>
+        <v>-99.015419998734799</v>
       </c>
       <c r="AA23" s="4">
-        <v>-105.622031431534</v>
+        <v>-105.45021347292879</v>
       </c>
       <c r="AB23" s="4">
-        <v>6.427232768345073</v>
+        <v>6.4347934741940218</v>
       </c>
       <c r="AC23" s="4">
         <v>-19.083279305354999</v>
@@ -7979,7 +7979,7 @@
         <v>18.53739234416139</v>
       </c>
       <c r="D24" s="4">
-        <v>-3.4429761412714019</v>
+        <v>-3.3022188308309519</v>
       </c>
       <c r="E24" s="4">
         <v>19.41382228798102</v>
@@ -8000,7 +8000,7 @@
         <v>22.936103474052292</v>
       </c>
       <c r="K24" s="4">
-        <v>-39.744669735398467</v>
+        <v>-39.623900601488458</v>
       </c>
       <c r="L24" s="4">
         <v>16.979616790725689</v>
@@ -8021,7 +8021,7 @@
         <v>-4.3987111298908994</v>
       </c>
       <c r="R24" s="4">
-        <v>36.301693594127158</v>
+        <v>36.321681770657619</v>
       </c>
       <c r="S24" s="4">
         <v>2.4342054972544251</v>
@@ -8045,13 +8045,13 @@
         <v>7.556763109306214</v>
       </c>
       <c r="Z24" s="4">
-        <v>-31.07694046136568</v>
+        <v>-31.342116523567299</v>
       </c>
       <c r="AA24" s="4">
-        <v>-46.992828496228327</v>
+        <v>-47.29648560179939</v>
       </c>
       <c r="AB24" s="4">
-        <v>15.915888034862681</v>
+        <v>15.954369078232091</v>
       </c>
       <c r="AC24" s="4">
         <v>-31.190545852825871</v>
@@ -8110,7 +8110,7 @@
         <v>-13.883913521831349</v>
       </c>
       <c r="D25" s="4">
-        <v>20.84743431755146</v>
+        <v>20.967541978964618</v>
       </c>
       <c r="E25" s="4">
         <v>18.329791617628871</v>
@@ -8131,7 +8131,7 @@
         <v>-9.5607080700137885</v>
       </c>
       <c r="K25" s="4">
-        <v>-12.63800951267444</v>
+        <v>-12.4905859223968</v>
       </c>
       <c r="L25" s="4">
         <v>15.485900855049749</v>
@@ -8152,7 +8152,7 @@
         <v>-4.3232054518173868</v>
       </c>
       <c r="R25" s="4">
-        <v>33.485443830225961</v>
+        <v>33.458127901361479</v>
       </c>
       <c r="S25" s="4">
         <v>2.843890762579576</v>
@@ -8176,13 +8176,13 @@
         <v>6.9021398656096329</v>
       </c>
       <c r="Z25" s="4">
-        <v>4.2930422774637034</v>
+        <v>4.2416335163840326</v>
       </c>
       <c r="AA25" s="4">
-        <v>-19.879776639230631</v>
+        <v>-19.964480702402579</v>
       </c>
       <c r="AB25" s="4">
-        <v>24.172818916694389</v>
+        <v>24.206114218786681</v>
       </c>
       <c r="AC25" s="4">
         <v>-5.241251874258551</v>
